--- a/biology/Médecine/Zdzisław_Czaplicki/Zdzisław_Czaplicki.xlsx
+++ b/biology/Médecine/Zdzisław_Czaplicki/Zdzisław_Czaplicki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zdzis%C5%82aw_Czaplicki</t>
+          <t>Zdzisław_Czaplicki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zdzisław Czaplicki (Varsovie, 4 septembre 1874-Cracovie, 23 décembre 1947) est un médecin polonais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zdzis%C5%82aw_Czaplicki</t>
+          <t>Zdzisław_Czaplicki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Varsovie puis à l'Université Jagellon où il obtient un doctorat. Il s'installe à Zakopane en 1897 où il devient un membre actif de la Société des Tatras et participe à plusieurs expéditions d'alpinisme, entre autres au Baranie rohy.
 Médecin puis co-vice-directeur avec Bronia Dluska (1903-1906) du sanatorium de Kazimierz Dłuski à Kościelisko ainsi que dans son cabinet privé à Zakopane, il sert dans l'armée autrichienne et polonaise lors de la Première Guerre mondiale où il est nommé lieutenant-colonel.
